--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-19.874</v>
+        <v>-20.257</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.462</v>
+        <v>-22.291</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.314</v>
+        <v>-20</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.257999999999999</v>
+        <v>-8.154</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.144</v>
+        <v>-7.302</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.268000000000001</v>
+        <v>-8.196000000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.706</v>
+        <v>-21.779</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.028</v>
+        <v>-20.14</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.434</v>
+        <v>-7.714</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.238</v>
+        <v>-7.988000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.723999999999999</v>
+        <v>-7.970999999999999</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.888</v>
+        <v>-7.997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.062</v>
+        <v>-22.111</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.614</v>
+        <v>-21.343</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.275999999999999</v>
+        <v>-7.572999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.592</v>
+        <v>-21.648</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.903999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.7</v>
+        <v>-19.896</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.391999999999999</v>
+        <v>-7.952</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.076000000000001</v>
+        <v>-7.853000000000002</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.35</v>
+        <v>-7.831999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.706</v>
+        <v>-7.531000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.732</v>
+        <v>-21.786</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.406000000000001</v>
+        <v>-8.374000000000001</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.366</v>
+        <v>-8.355</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.124</v>
+        <v>-22.162</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8</v>
+        <v>-8.301</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.226</v>
+        <v>-22.23</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.482</v>
+        <v>-22.263</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.774</v>
+        <v>-22.354</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.214</v>
+        <v>-22.085</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.722</v>
+        <v>-21.532</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.644</v>
+        <v>-7.557</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.975999999999999</v>
+        <v>-7.204000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.836</v>
+        <v>-20.213</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.322</v>
+        <v>-21.244</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.306</v>
+        <v>-7.6</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.116</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.668</v>
+        <v>-21.64</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.608</v>
+        <v>-6.654000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.379999999999999</v>
+        <v>-8.388</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.068</v>
+        <v>-22.217</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
